--- a/OPRFileImport/(OPR)Import HolidayList.xlsx
+++ b/OPRFileImport/(OPR)Import HolidayList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPRFileImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91BBC2C-601F-4988-8161-DF2A92FB3E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687F97AB-624E-4D72-81D9-61A20956A426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>holiday_date</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>01/01/2023</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>เทส</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -141,7 +150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -154,6 +163,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -436,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -478,6 +490,23 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>45026</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1">
         <v>100</v>
       </c>
     </row>
@@ -497,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1653B08-4CC3-4322-AF88-6F90AE124722}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
